--- a/biology/Médecine/Cage_thoracique/Cage_thoracique.xlsx
+++ b/biology/Médecine/Cage_thoracique/Cage_thoracique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cage thoracique est l'ensemble des structures osseuses et cartilagineuse constituant la paroi du thorax.
 </t>
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La cage thoracique est constituée par l'ensemble osseux formé de:
 la colonne vertébrale thoracique en arrière sur la ligne médiane, composé des 12 vertèbres thoraciques
@@ -552,7 +566,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La cage thoracique renferme la cavité thoracique. 
 Elle contient l'appareil cardio-pulmonaire et l’œsophage :
@@ -585,7 +601,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La mobilité de la cage thoracique par son changement de volume intervient dans la respiration.
 </t>
@@ -616,7 +634,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'intervention chirurgicale consistant à réséquer une partie de la paroi thoracique s'appelle une pariétectomie.
 </t>
